--- a/src/main/resources/calc/submission_K11827238.xlsx
+++ b/src/main/resources/calc/submission_K11827238.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hilfstabellen" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
   <si>
     <t xml:space="preserve">Hilfstabelle 1</t>
   </si>
@@ -302,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,11 +339,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,11 +371,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,7 +498,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.77"/>
@@ -648,7 +644,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
   </cols>
@@ -703,11 +699,11 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
   </cols>
@@ -715,7 +711,7 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="str">
         <f aca="false">CONCATENATE("Ferienhaus ",B6)</f>
-        <v>Ferienhaus Citytrip-Wien</v>
+        <v>Ferienhaus </v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -730,9 +726,9 @@
       <c r="E2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="10" t="e">
         <f aca="false">CONCATENATE("Anschrift: ",VLOOKUP(B6,Hilfstabellen!J9:N13,2,0),", ",VLOOKUP(B6,Hilfstabellen!J9:N13,3,0))</f>
-        <v>Anschrift: Wildbärengasse 19, 1210 Wien</v>
+        <v>#N/A</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -742,7 +738,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="str">
         <f aca="false">CONCATENATE("Email: ","info.",B6,"@ferienhäuser.at")</f>
-        <v>Email: info.Citytrip-Wien@ferienhäuser.at</v>
+        <v>Email: info.@ferienhäuser.at</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -753,26 +749,23 @@
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="8" t="e">
         <f aca="false">VLOOKUP(B6,Hilfstabellen!J11:N13,4,0)</f>
-        <v>99</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="8" t="e">
         <f aca="false">VLOOKUP(B6,Hilfstabellen!J11:N13,5,0)</f>
-        <v>35</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -781,12 +774,6 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6" type="list">
-      <formula1>Hilfstabellen!$J$11:$J$13</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -805,10 +792,10 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.8"/>
@@ -817,7 +804,7 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="str">
         <f aca="false">CONCATENATE("Ferienhaus ",B6)</f>
-        <v>Ferienhaus Seeparadies</v>
+        <v>Ferienhaus Bergtraum</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -844,7 +831,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="str">
         <f aca="false">CONCATENATE("Email: ","info.",B6,"@ferienhäuser.at")</f>
-        <v>Email: info.Seeparadies@ferienhäuser.at</v>
+        <v>Email: info.Bergtraum@ferienhäuser.at</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -856,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,7 +852,7 @@
       </c>
       <c r="B7" s="8" t="n">
         <f aca="false">VLOOKUP(B6,Hilfstabellen!J11:N13,4,0)</f>
-        <v>164</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -874,7 +861,7 @@
       </c>
       <c r="B8" s="8" t="n">
         <f aca="false">VLOOKUP(B6,Hilfstabellen!J11:N13,5,0)</f>
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,7 +930,7 @@
       <c r="D15" s="15" t="n">
         <v>35647</v>
       </c>
-      <c r="E15" s="17" t="e">
+      <c r="E15" s="16" t="e">
         <f aca="false">org.openoffice.years(D15,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
@@ -961,7 +948,7 @@
       <c r="D16" s="15" t="n">
         <v>32826</v>
       </c>
-      <c r="E16" s="17" t="e">
+      <c r="E16" s="16" t="e">
         <f aca="false">org.openoffice.years(D16,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
@@ -984,14 +971,13 @@
       <c r="A19" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="18" t="n">
-        <f aca="false">COUNTIF($A$13:$A$16,A19)</f>
+      <c r="B19" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&lt;"&amp;D19)</f>
         <v>0</v>
       </c>
@@ -1000,14 +986,14 @@
       <c r="A20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A20)</f>
         <v>1</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="19" t="n">
         <v>26</v>
       </c>
-      <c r="E20" s="17" t="n">
+      <c r="E20" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&lt;="&amp;D20)-E19</f>
         <v>0</v>
       </c>
@@ -1016,14 +1002,14 @@
       <c r="A21" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A21)</f>
         <v>1</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="20" t="n">
         <v>26</v>
       </c>
-      <c r="E21" s="17" t="n">
+      <c r="E21" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&gt;"&amp;D21)</f>
         <v>0</v>
       </c>
@@ -1074,10 +1060,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.8"/>
@@ -1179,11 +1165,11 @@
       <c r="D13" s="15" t="n">
         <v>36252</v>
       </c>
-      <c r="E13" s="17" t="e">
+      <c r="E13" s="16" t="e">
         <f aca="false">org.openoffice.years(D13,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F13" s="17" t="e">
+      <c r="F13" s="16" t="e">
         <f aca="false">IF(AND(A13=$A$19,E13&gt;$D$21),1,IF(OR(A13=$A$21,E13&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
@@ -1201,11 +1187,11 @@
       <c r="D14" s="15" t="n">
         <v>35151</v>
       </c>
-      <c r="E14" s="17" t="e">
+      <c r="E14" s="16" t="e">
         <f aca="false">org.openoffice.years(D14,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F14" s="17" t="e">
+      <c r="F14" s="16" t="e">
         <f aca="false">IF(AND(A14=$A$19,E14&gt;$D$21),1,IF(OR(A14=$A$21,E14&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
@@ -1223,11 +1209,11 @@
       <c r="D15" s="15" t="n">
         <v>35647</v>
       </c>
-      <c r="E15" s="17" t="e">
+      <c r="E15" s="16" t="e">
         <f aca="false">org.openoffice.years(D15,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F15" s="17" t="e">
+      <c r="F15" s="16" t="e">
         <f aca="false">IF(AND(A15=$A$19,E15&gt;$D$21),1,IF(OR(A15=$A$21,E15&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
@@ -1245,11 +1231,11 @@
       <c r="D16" s="15" t="n">
         <v>32826</v>
       </c>
-      <c r="E16" s="17" t="e">
+      <c r="E16" s="16" t="e">
         <f aca="false">org.openoffice.years(D16,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F16" s="17" t="e">
+      <c r="F16" s="16" t="e">
         <f aca="false">IF(AND(A16=$A$19,E16&gt;$D$21),1,IF(OR(A16=$A$21,E16&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
@@ -1272,14 +1258,14 @@
       <c r="A19" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A19)</f>
         <v>2</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&lt;"&amp;D19)</f>
         <v>0</v>
       </c>
@@ -1288,14 +1274,14 @@
       <c r="A20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A20)</f>
         <v>1</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="19" t="n">
         <v>26</v>
       </c>
-      <c r="E20" s="17" t="n">
+      <c r="E20" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&lt;="&amp;D20)-E19</f>
         <v>0</v>
       </c>
@@ -1304,14 +1290,14 @@
       <c r="A21" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A21)</f>
         <v>1</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="20" t="n">
         <v>26</v>
       </c>
-      <c r="E21" s="17" t="n">
+      <c r="E21" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&gt;"&amp;D21)</f>
         <v>0</v>
       </c>
@@ -1328,7 +1314,7 @@
       <c r="A24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="17" t="n">
+      <c r="B24" s="16" t="n">
         <f aca="false">COUNTIF($F$13:$F$16,A24)</f>
         <v>0</v>
       </c>
@@ -1337,7 +1323,7 @@
       <c r="A25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="17" t="n">
+      <c r="B25" s="16" t="n">
         <f aca="false">COUNTIF($F$13:$F$16,A25)</f>
         <v>0</v>
       </c>
@@ -1346,7 +1332,7 @@
       <c r="A26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="n">
+      <c r="B26" s="16" t="n">
         <f aca="false">COUNTIF($F$13:$F$16,A26)</f>
         <v>0</v>
       </c>
@@ -1400,7 +1386,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.8"/>
@@ -1473,7 +1459,7 @@
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="21" t="n">
         <v>45249</v>
       </c>
     </row>
@@ -1481,7 +1467,7 @@
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="21" t="n">
         <v>45250</v>
       </c>
     </row>
@@ -1518,11 +1504,11 @@
       <c r="D13" s="15" t="n">
         <v>36252</v>
       </c>
-      <c r="E13" s="17" t="e">
+      <c r="E13" s="16" t="e">
         <f aca="false">org.openoffice.years(D13,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F13" s="17" t="e">
+      <c r="F13" s="16" t="e">
         <f aca="false">IF(AND(A13=$A$19,E13&gt;$D$21),1,IF(OR(A13=$A$21,E13&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
@@ -1540,11 +1526,11 @@
       <c r="D14" s="15" t="n">
         <v>35151</v>
       </c>
-      <c r="E14" s="17" t="e">
+      <c r="E14" s="16" t="e">
         <f aca="false">org.openoffice.years(D14,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F14" s="17" t="e">
+      <c r="F14" s="16" t="e">
         <f aca="false">IF(AND(A14=$A$19,E14&gt;$D$21),1,IF(OR(A14=$A$21,E14&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
@@ -1562,11 +1548,11 @@
       <c r="D15" s="15" t="n">
         <v>35647</v>
       </c>
-      <c r="E15" s="17" t="e">
+      <c r="E15" s="16" t="e">
         <f aca="false">org.openoffice.years(D15,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F15" s="17" t="e">
+      <c r="F15" s="16" t="e">
         <f aca="false">IF(AND(A15=$A$19,E15&gt;$D$21),1,IF(OR(A15=$A$21,E15&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
@@ -1584,11 +1570,11 @@
       <c r="D16" s="15" t="n">
         <v>32826</v>
       </c>
-      <c r="E16" s="17" t="e">
+      <c r="E16" s="16" t="e">
         <f aca="false">org.openoffice.years(D16,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F16" s="17" t="e">
+      <c r="F16" s="16" t="e">
         <f aca="false">IF(AND(A16=$A$19,E16&gt;$D$21),1,IF(OR(A16=$A$21,E16&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
@@ -1611,14 +1597,14 @@
       <c r="A19" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&lt;"&amp;D19)</f>
         <v>0</v>
       </c>
@@ -1627,14 +1613,14 @@
       <c r="A20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A20)</f>
         <v>1</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="19" t="n">
         <v>26</v>
       </c>
-      <c r="E20" s="17" t="n">
+      <c r="E20" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&lt;="&amp;D20)-E19</f>
         <v>0</v>
       </c>
@@ -1643,14 +1629,14 @@
       <c r="A21" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A21)</f>
         <v>2</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="20" t="n">
         <v>26</v>
       </c>
-      <c r="E21" s="17" t="n">
+      <c r="E21" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&gt;"&amp;D21)</f>
         <v>0</v>
       </c>
@@ -1667,7 +1653,7 @@
       <c r="A24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="17" t="n">
+      <c r="B24" s="16" t="n">
         <f aca="false">COUNTIF($F$13:$F$16,A24)</f>
         <v>0</v>
       </c>
@@ -1676,7 +1662,7 @@
       <c r="A25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="17" t="n">
+      <c r="B25" s="16" t="n">
         <f aca="false">COUNTIF($F$13:$F$16,A25)</f>
         <v>0</v>
       </c>
@@ -1685,7 +1671,7 @@
       <c r="A26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="n">
+      <c r="B26" s="16" t="n">
         <f aca="false">COUNTIF($F$13:$F$16,A26)</f>
         <v>0</v>
       </c>
@@ -1697,37 +1683,37 @@
       <c r="B28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="17" t="n">
+      <c r="B29" s="16" t="n">
         <f aca="false">B7*_xlfn.DAYS(B10,B9)+B8*COUNTA(A13:A16)*_xlfn.DAYS(B10,B9)</f>
         <v>194</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="24" t="n">
+      <c r="B30" s="23" t="n">
         <f aca="false">B26*B8*_xlfn.DAYS(B10,B9)*(1-Hilfstabellen!M18)+B25*B8*_xlfn.DAYS(B10,B9)*(1-Hilfstabellen!L18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="17" t="n">
+      <c r="B31" s="16" t="n">
         <f aca="false">B29-B30</f>
         <v>194</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="17" t="n">
+      <c r="B32" s="16" t="n">
         <f aca="false">B31/COUNTA(A13:A16)</f>
         <v>48.5</v>
       </c>
@@ -1744,16 +1730,16 @@
       <formula1>Hilfstabellen!$J$11:$J$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A13:A16" type="list">
-      <formula1>Aufgabe5!$A$19:$A$21</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9" type="date">
       <formula1>TODAY()</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10" type="date">
       <formula1>B9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A13:A16" type="list">
+      <formula1>Aufgabe5!$A$19:$A$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1774,11 +1760,11 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.8"/>
@@ -1826,7 +1812,7 @@
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1834,7 +1820,7 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="n">
+      <c r="B7" s="25" t="n">
         <f aca="false">VLOOKUP(B6,Hilfstabellen!J11:N13,4,0)</f>
         <v>102</v>
       </c>
@@ -1843,7 +1829,7 @@
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="26" t="n">
+      <c r="B8" s="25" t="n">
         <f aca="false">VLOOKUP(B6,Hilfstabellen!J11:N13,5,0)</f>
         <v>23</v>
       </c>
@@ -1852,7 +1838,7 @@
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="21" t="n">
         <v>45249</v>
       </c>
     </row>
@@ -1860,7 +1846,7 @@
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="21" t="n">
         <v>45250</v>
       </c>
     </row>
@@ -1885,7 +1871,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -1897,17 +1883,17 @@
       <c r="D13" s="15" t="n">
         <v>36252</v>
       </c>
-      <c r="E13" s="17" t="e">
+      <c r="E13" s="16" t="e">
         <f aca="false">org.openoffice.years(D13,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F13" s="17" t="e">
+      <c r="F13" s="16" t="e">
         <f aca="false">IF(AND(A13=$A$19,E13&gt;$D$21),1,IF(OR(A13=$A$21,E13&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -1919,17 +1905,17 @@
       <c r="D14" s="15" t="n">
         <v>35151</v>
       </c>
-      <c r="E14" s="17" t="e">
+      <c r="E14" s="16" t="e">
         <f aca="false">org.openoffice.years(D14,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F14" s="17" t="e">
+      <c r="F14" s="16" t="e">
         <f aca="false">IF(AND(A14=$A$19,E14&gt;$D$21),1,IF(OR(A14=$A$21,E14&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -1941,17 +1927,17 @@
       <c r="D15" s="15" t="n">
         <v>35647</v>
       </c>
-      <c r="E15" s="17" t="e">
+      <c r="E15" s="16" t="e">
         <f aca="false">org.openoffice.years(D15,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F15" s="17" t="e">
+      <c r="F15" s="16" t="e">
         <f aca="false">IF(AND(A15=$A$19,E15&gt;$D$21),1,IF(OR(A15=$A$21,E15&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -1963,16 +1949,16 @@
       <c r="D16" s="15" t="n">
         <v>32826</v>
       </c>
-      <c r="E16" s="17" t="e">
+      <c r="E16" s="16" t="e">
         <f aca="false">org.openoffice.years(D16,TODAY(),0)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F16" s="17" t="e">
+      <c r="F16" s="16" t="e">
         <f aca="false">IF(AND(A16=$A$19,E16&gt;$D$21),1,IF(OR(A16=$A$21,E16&lt;$D$19),3,2))</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
@@ -1986,56 +1972,55 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&lt;"&amp;D19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A20)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="19" t="n">
         <v>26</v>
       </c>
-      <c r="E20" s="17" t="n">
+      <c r="E20" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&lt;="&amp;D20)-E19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="17" t="n">
         <f aca="false">COUNTIF($A$13:$A$16,A21)</f>
         <v>4</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="20" t="n">
         <v>26</v>
       </c>
-      <c r="E21" s="17" t="n">
+      <c r="E21" s="16" t="n">
         <f aca="false">COUNTIF($E$13:$E$16,"&gt;"&amp;D21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
         <v>37</v>
       </c>
@@ -2043,34 +2028,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="17" t="n">
+      <c r="B24" s="16" t="n">
         <f aca="false">COUNTIF($F$13:$F$16,A24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="17" t="n">
+      <c r="B25" s="16" t="n">
         <f aca="false">COUNTIF($F$13:$F$16,A25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="n">
+      <c r="B26" s="16" t="n">
         <f aca="false">COUNTIF($F$13:$F$16,A26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>40</v>
@@ -2078,37 +2062,37 @@
       <c r="B28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="28" t="n">
+      <c r="B29" s="27" t="n">
         <f aca="false">B7*_xlfn.DAYS(B10,B9)+B8*COUNTA(A13:A16)*_xlfn.DAYS(B10,B9)</f>
         <v>194</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="28" t="n">
+      <c r="B30" s="27" t="n">
         <f aca="false">B26*B8*_xlfn.DAYS(B10,B9)*(1-Hilfstabellen!M18)+B25*B8*_xlfn.DAYS(B10,B9)*(1-Hilfstabellen!L18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="28" t="n">
+      <c r="B31" s="27" t="n">
         <f aca="false">B29-B30</f>
         <v>194</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="28" t="n">
+      <c r="B32" s="27" t="n">
         <f aca="false">B31/COUNTA(A13:A16)</f>
         <v>48.5</v>
       </c>
@@ -2126,16 +2110,16 @@
       <formula1>Hilfstabellen!$J$11:$J$13</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A13:A16" type="list">
-      <formula1>Aufagbe6!$A$19:$A$21</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9" type="date">
       <formula1>TODAY()</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B10" type="date">
       <formula1>B9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A13:A16" type="list">
+      <formula1>Aufagbe6!$A$19:$A$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
